--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf18-Fgfr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf18-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,6 +92,9 @@
   </si>
   <si>
     <t>Fgfr2</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.71390131936502</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H2">
-        <v>2.71390131936502</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I2">
-        <v>0.7757490524393041</v>
+        <v>0.6703478441031137</v>
       </c>
       <c r="J2">
-        <v>0.7757490524393041</v>
+        <v>0.717797521317681</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.57603935464424</v>
+        <v>0.493831</v>
       </c>
       <c r="N2">
-        <v>3.57603935464424</v>
+        <v>1.481493</v>
       </c>
       <c r="O2">
-        <v>0.9613015310420293</v>
+        <v>0.1121895146192186</v>
       </c>
       <c r="P2">
-        <v>0.9613015310420293</v>
+        <v>0.1134277760249069</v>
       </c>
       <c r="Q2">
-        <v>9.705017922670239</v>
+        <v>1.366905771642667</v>
       </c>
       <c r="R2">
-        <v>9.705017922670239</v>
+        <v>12.302151944784</v>
       </c>
       <c r="S2">
-        <v>0.7457287518143065</v>
+        <v>0.07520599925596791</v>
       </c>
       <c r="T2">
-        <v>0.7457287518143065</v>
+        <v>0.08141817647925527</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,185 +587,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.71390131936502</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H3">
-        <v>2.71390131936502</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I3">
-        <v>0.7757490524393041</v>
+        <v>0.6703478441031137</v>
       </c>
       <c r="J3">
-        <v>0.7757490524393041</v>
+        <v>0.717797521317681</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.143958210290348</v>
+        <v>3.763360333333333</v>
       </c>
       <c r="N3">
-        <v>0.143958210290348</v>
+        <v>11.290081</v>
       </c>
       <c r="O3">
-        <v>0.03869846895797077</v>
+        <v>0.85496773012202</v>
       </c>
       <c r="P3">
-        <v>0.03869846895797077</v>
+        <v>0.8644042050627692</v>
       </c>
       <c r="Q3">
-        <v>0.3906883768404025</v>
+        <v>10.41684090388089</v>
       </c>
       <c r="R3">
-        <v>0.3906883768404025</v>
+        <v>93.75156813492801</v>
       </c>
       <c r="S3">
-        <v>0.03002030062499765</v>
+        <v>0.5731257746650288</v>
       </c>
       <c r="T3">
-        <v>0.03002030062499765</v>
+        <v>0.6204671958106361</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.784525537659546</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H4">
-        <v>0.784525537659546</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I4">
-        <v>0.2242509475606959</v>
+        <v>0.6703478441031137</v>
       </c>
       <c r="J4">
-        <v>0.2242509475606959</v>
+        <v>0.717797521317681</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.57603935464424</v>
+        <v>0.0004073333333333333</v>
       </c>
       <c r="N4">
-        <v>3.57603935464424</v>
+        <v>0.001222</v>
       </c>
       <c r="O4">
-        <v>0.9613015310420293</v>
+        <v>9.253880164447964E-05</v>
       </c>
       <c r="P4">
-        <v>0.9613015310420293</v>
+        <v>9.356017362379453E-05</v>
       </c>
       <c r="Q4">
-        <v>2.805494197393968</v>
+        <v>0.001127483459555556</v>
       </c>
       <c r="R4">
-        <v>2.805494197393968</v>
+        <v>0.010147351136</v>
       </c>
       <c r="S4">
-        <v>0.2155727792277227</v>
+        <v>6.203318617826259E-05</v>
       </c>
       <c r="T4">
-        <v>0.2155727792277227</v>
+        <v>6.71572607212116E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.767962666666667</v>
+      </c>
+      <c r="H5">
+        <v>8.303888000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.6703478441031137</v>
+      </c>
+      <c r="J5">
+        <v>0.717797521317681</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.1441585</v>
+      </c>
+      <c r="N5">
+        <v>0.288317</v>
+      </c>
+      <c r="O5">
+        <v>0.03275021645711715</v>
+      </c>
+      <c r="P5">
+        <v>0.02207445873870014</v>
+      </c>
+      <c r="Q5">
+        <v>0.3990253460826667</v>
+      </c>
+      <c r="R5">
+        <v>2.394152076496</v>
+      </c>
+      <c r="S5">
+        <v>0.02195403699593879</v>
+      </c>
+      <c r="T5">
+        <v>0.01584499176706838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1393433333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.41803</v>
+      </c>
+      <c r="I6">
+        <v>0.03374630164453381</v>
+      </c>
+      <c r="J6">
+        <v>0.03613498855432903</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.493831</v>
+      </c>
+      <c r="N6">
+        <v>1.481493</v>
+      </c>
+      <c r="O6">
+        <v>0.1121895146192186</v>
+      </c>
+      <c r="P6">
+        <v>0.1134277760249069</v>
+      </c>
+      <c r="Q6">
+        <v>0.06881205764333334</v>
+      </c>
+      <c r="R6">
+        <v>0.61930851879</v>
+      </c>
+      <c r="S6">
+        <v>0.003785981201693986</v>
+      </c>
+      <c r="T6">
+        <v>0.004098711388403008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1393433333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.41803</v>
+      </c>
+      <c r="I7">
+        <v>0.03374630164453381</v>
+      </c>
+      <c r="J7">
+        <v>0.03613498855432903</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.763360333333333</v>
+      </c>
+      <c r="N7">
+        <v>11.290081</v>
+      </c>
+      <c r="O7">
+        <v>0.85496773012202</v>
+      </c>
+      <c r="P7">
+        <v>0.8644042050627692</v>
+      </c>
+      <c r="Q7">
+        <v>0.5243991733811112</v>
+      </c>
+      <c r="R7">
+        <v>4.719592560430001</v>
+      </c>
+      <c r="S7">
+        <v>0.02885199891704007</v>
+      </c>
+      <c r="T7">
+        <v>0.03123523605625705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1393433333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.41803</v>
+      </c>
+      <c r="I8">
+        <v>0.03374630164453381</v>
+      </c>
+      <c r="J8">
+        <v>0.03613498855432903</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.0004073333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.001222</v>
+      </c>
+      <c r="O8">
+        <v>9.253880164447964E-05</v>
+      </c>
+      <c r="P8">
+        <v>9.356017362379453E-05</v>
+      </c>
+      <c r="Q8">
+        <v>5.675918444444445E-05</v>
+      </c>
+      <c r="R8">
+        <v>0.00051083266</v>
+      </c>
+      <c r="S8">
+        <v>3.122842314118292E-06</v>
+      </c>
+      <c r="T8">
+        <v>3.380795803036853E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1393433333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.41803</v>
+      </c>
+      <c r="I9">
+        <v>0.03374630164453381</v>
+      </c>
+      <c r="J9">
+        <v>0.03613498855432903</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1441585</v>
+      </c>
+      <c r="N9">
+        <v>0.288317</v>
+      </c>
+      <c r="O9">
+        <v>0.03275021645711715</v>
+      </c>
+      <c r="P9">
+        <v>0.02207445873870014</v>
+      </c>
+      <c r="Q9">
+        <v>0.02008752591833333</v>
+      </c>
+      <c r="R9">
+        <v>0.12052515551</v>
+      </c>
+      <c r="S9">
+        <v>0.001105198683485651</v>
+      </c>
+      <c r="T9">
+        <v>0.000797660313865938</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4029723333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.208917</v>
+      </c>
+      <c r="I10">
+        <v>0.09759222482885171</v>
+      </c>
+      <c r="J10">
+        <v>0.1045001601754271</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.493831</v>
+      </c>
+      <c r="N10">
+        <v>1.481493</v>
+      </c>
+      <c r="O10">
+        <v>0.1121895146192186</v>
+      </c>
+      <c r="P10">
+        <v>0.1134277760249069</v>
+      </c>
+      <c r="Q10">
+        <v>0.1990002303423333</v>
+      </c>
+      <c r="R10">
+        <v>1.791002073081</v>
+      </c>
+      <c r="S10">
+        <v>0.01094882433415852</v>
+      </c>
+      <c r="T10">
+        <v>0.01185322076294524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.4029723333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.208917</v>
+      </c>
+      <c r="I11">
+        <v>0.09759222482885171</v>
+      </c>
+      <c r="J11">
+        <v>0.1045001601754271</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.763360333333333</v>
+      </c>
+      <c r="N11">
+        <v>11.290081</v>
+      </c>
+      <c r="O11">
+        <v>0.85496773012202</v>
+      </c>
+      <c r="P11">
+        <v>0.8644042050627692</v>
+      </c>
+      <c r="Q11">
+        <v>1.516530094697444</v>
+      </c>
+      <c r="R11">
+        <v>13.648770852277</v>
+      </c>
+      <c r="S11">
+        <v>0.08343820293948119</v>
+      </c>
+      <c r="T11">
+        <v>0.09033037788537211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4029723333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.208917</v>
+      </c>
+      <c r="I12">
+        <v>0.09759222482885171</v>
+      </c>
+      <c r="J12">
+        <v>0.1045001601754271</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.0004073333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.001222</v>
+      </c>
+      <c r="O12">
+        <v>9.253880164447964E-05</v>
+      </c>
+      <c r="P12">
+        <v>9.356017362379453E-05</v>
+      </c>
+      <c r="Q12">
+        <v>0.0001641440637777778</v>
+      </c>
+      <c r="R12">
+        <v>0.001477296574</v>
+      </c>
+      <c r="S12">
+        <v>9.03106753548057E-06</v>
+      </c>
+      <c r="T12">
+        <v>9.777053129727299E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4029723333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.208917</v>
+      </c>
+      <c r="I13">
+        <v>0.09759222482885171</v>
+      </c>
+      <c r="J13">
+        <v>0.1045001601754271</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1441585</v>
+      </c>
+      <c r="N13">
+        <v>0.288317</v>
+      </c>
+      <c r="O13">
+        <v>0.03275021645711715</v>
+      </c>
+      <c r="P13">
+        <v>0.02207445873870014</v>
+      </c>
+      <c r="Q13">
+        <v>0.05809188711483333</v>
+      </c>
+      <c r="R13">
+        <v>0.348551322689</v>
+      </c>
+      <c r="S13">
+        <v>0.003196166487676536</v>
+      </c>
+      <c r="T13">
+        <v>0.002306784473980021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8188655</v>
+      </c>
+      <c r="H14">
+        <v>1.637731</v>
+      </c>
+      <c r="I14">
+        <v>0.1983136294235007</v>
+      </c>
+      <c r="J14">
+        <v>0.1415673299525628</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.493831</v>
+      </c>
+      <c r="N14">
+        <v>1.481493</v>
+      </c>
+      <c r="O14">
+        <v>0.1121895146192186</v>
+      </c>
+      <c r="P14">
+        <v>0.1134277760249069</v>
+      </c>
+      <c r="Q14">
+        <v>0.4043811687305</v>
+      </c>
+      <c r="R14">
+        <v>2.426287012383</v>
+      </c>
+      <c r="S14">
+        <v>0.02224870982739812</v>
+      </c>
+      <c r="T14">
+        <v>0.01605766739430339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8188655</v>
+      </c>
+      <c r="H15">
+        <v>1.637731</v>
+      </c>
+      <c r="I15">
+        <v>0.1983136294235007</v>
+      </c>
+      <c r="J15">
+        <v>0.1415673299525628</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.763360333333333</v>
+      </c>
+      <c r="N15">
+        <v>11.290081</v>
+      </c>
+      <c r="O15">
+        <v>0.85496773012202</v>
+      </c>
+      <c r="P15">
+        <v>0.8644042050627692</v>
+      </c>
+      <c r="Q15">
+        <v>3.081685941035167</v>
+      </c>
+      <c r="R15">
+        <v>18.490115646211</v>
+      </c>
+      <c r="S15">
+        <v>0.1695517536004698</v>
+      </c>
+      <c r="T15">
+        <v>0.1223713953105038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.784525537659546</v>
-      </c>
-      <c r="H5">
-        <v>0.784525537659546</v>
-      </c>
-      <c r="I5">
-        <v>0.2242509475606959</v>
-      </c>
-      <c r="J5">
-        <v>0.2242509475606959</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.143958210290348</v>
-      </c>
-      <c r="N5">
-        <v>0.143958210290348</v>
-      </c>
-      <c r="O5">
-        <v>0.03869846895797077</v>
-      </c>
-      <c r="P5">
-        <v>0.03869846895797077</v>
-      </c>
-      <c r="Q5">
-        <v>0.1129388923285412</v>
-      </c>
-      <c r="R5">
-        <v>0.1129388923285412</v>
-      </c>
-      <c r="S5">
-        <v>0.00867816833297312</v>
-      </c>
-      <c r="T5">
-        <v>0.00867816833297312</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8188655</v>
+      </c>
+      <c r="H16">
+        <v>1.637731</v>
+      </c>
+      <c r="I16">
+        <v>0.1983136294235007</v>
+      </c>
+      <c r="J16">
+        <v>0.1415673299525628</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.0004073333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.001222</v>
+      </c>
+      <c r="O16">
+        <v>9.253880164447964E-05</v>
+      </c>
+      <c r="P16">
+        <v>9.356017362379453E-05</v>
+      </c>
+      <c r="Q16">
+        <v>0.0003335512136666667</v>
+      </c>
+      <c r="R16">
+        <v>0.002001307282</v>
+      </c>
+      <c r="S16">
+        <v>1.835170561661818E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.324506396981879E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8188655</v>
+      </c>
+      <c r="H17">
+        <v>1.637731</v>
+      </c>
+      <c r="I17">
+        <v>0.1983136294235007</v>
+      </c>
+      <c r="J17">
+        <v>0.1415673299525628</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1441585</v>
+      </c>
+      <c r="N17">
+        <v>0.288317</v>
+      </c>
+      <c r="O17">
+        <v>0.03275021645711715</v>
+      </c>
+      <c r="P17">
+        <v>0.02207445873870014</v>
+      </c>
+      <c r="Q17">
+        <v>0.11804642218175</v>
+      </c>
+      <c r="R17">
+        <v>0.472185688727</v>
+      </c>
+      <c r="S17">
+        <v>0.006494814290016165</v>
+      </c>
+      <c r="T17">
+        <v>0.003125022183785796</v>
       </c>
     </row>
   </sheetData>
